--- a/homework7/ssig_calculator.xlsx
+++ b/homework7/ssig_calculator.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/picone/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gavinkoma/Desktop/pattern_rec/homework7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B74012D-96D7-EF4D-86FB-F67AA77B213D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F37A62F-7541-A84F-9A08-EA19E0BDE151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9660" yWindow="-17420" windowWidth="12060" windowHeight="17440" xr2:uid="{1E246484-E8EA-814E-8E6B-EF931C797928}"/>
+    <workbookView xWindow="3680" yWindow="1480" windowWidth="11960" windowHeight="12560" activeTab="1" xr2:uid="{1E246484-E8EA-814E-8E6B-EF931C797928}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="table" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,6 +27,9 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="11">
   <si>
     <t>Confidence Level</t>
   </si>
@@ -456,16 +460,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E353816D-5EEF-7E4A-B873-884E083DB11A}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A21" zoomScale="75" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28:I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.1640625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.83203125" style="1"/>
+    <col min="2" max="7" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="21.5" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -611,7 +617,7 @@
         <v>0.37918206742320282</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -619,7 +625,7 @@
         <v>0.35681793257679717</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -628,7 +634,7 @@
         <v>1.6450000653126464</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -636,7 +642,7 @@
         <v>18936</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -644,7 +650,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
@@ -653,7 +659,7 @@
         <v>1.645</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
@@ -672,7 +678,7 @@
         <v>0.49784903877966424</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
@@ -680,7 +686,7 @@
         <v>0.48095096122033576</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>4</v>
       </c>
@@ -688,6 +694,788 @@
         <f>(B23-B24)/SQRT((B23*(1-B23)/B20) + (B24*(1-B24)/B20))</f>
         <v>1.6450265431962081</v>
       </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="3">
+        <f>B11</f>
+        <v>2.3250686169147436</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I30" s="3">
+        <f>I11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="4">
+        <f>B31-(B31-B32)</f>
+        <v>0.19</v>
+      </c>
+      <c r="F31" s="4">
+        <f>B31+(B31-B32)</f>
+        <v>0.21000000000000002</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I31" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" s="5">
+        <v>0.19919999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="3">
+        <f>(B31-B32)/SQRT((B31*(1-B31)/B28) + (B32*(1-B32)/B28))</f>
+        <v>0.56442253133924658</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I33" s="3">
+        <f>(I31-I32)/SQRT((I31*(1-I31)/I28) + (I32*(1-I32)/I28))</f>
+        <v>4.4754983172774689E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I36" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="3">
+        <f>B19</f>
+        <v>0</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I38" s="3">
+        <f>I19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="4">
+        <f>B39-(B39-B40)</f>
+        <v>0.18</v>
+      </c>
+      <c r="F39" s="4">
+        <f>B39+(B39-B40)</f>
+        <v>0.22000000000000003</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I39" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I40" s="5">
+        <v>0.19800000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="3">
+        <f>(B39-B40)/SQRT((B39*(1-B39)/B36) + (B40*(1-B40)/B36))</f>
+        <v>1.1403464899034472</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I41" s="3">
+        <f>(I39-I40)/SQRT((I39*(1-I39)/I36) + (I40*(1-I40)/I36))</f>
+        <v>0.1120143244115954</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="3">
+        <f>B27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="4">
+        <f>B47-(B47-B48)</f>
+        <v>0.17</v>
+      </c>
+      <c r="F47" s="4">
+        <f>B47+(B47-B48)</f>
+        <v>0.23</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I47" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I48" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="3">
+        <f>(B47-B48)/SQRT((B47*(1-B47)/B44) + (B48*(1-B48)/B44))</f>
+        <v>1.7288840869140769</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I49" s="3">
+        <f>I30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I50" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I51" s="5">
+        <v>0.19700000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3">
+        <f>(I50-I51)/SQRT((I50*(1-I50)/I47) + (I51*(1-I51)/I47))</f>
+        <v>0.16818114657823627</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="3">
+        <f>B34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="4">
+        <f>B54-(B54-B55)</f>
+        <v>0.16</v>
+      </c>
+      <c r="F54" s="4">
+        <f>B54+(B54-B55)</f>
+        <v>0.24000000000000002</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I54" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I55" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="3">
+        <f>(B54-B55)/SQRT((B54*(1-B54)/B51) + (B55*(1-B55)/B51))</f>
+        <v>2.3312620206007848</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I56" s="3">
+        <f>I37</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H57" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I57" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="5">
+        <v>0.19600000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I59" s="3">
+        <f>(I57-I58)/SQRT((I57*(1-I57)/I54) + (I58*(1-I58)/I54))</f>
+        <v>0.22445572348938669</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61" s="3">
+        <f>B42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="4">
+        <f>B62-(B62-B63)</f>
+        <v>0.15</v>
+      </c>
+      <c r="F62" s="4">
+        <f>B62+(B62-B63)</f>
+        <v>0.25</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I62" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I63" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" s="3">
+        <f>(B62-B63)/SQRT((B62*(1-B62)/B59) + (B63*(1-B63)/B59))</f>
+        <v>2.9488391230979438</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I64" s="3">
+        <f>I45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H65" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I65" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H66" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I66" s="5">
+        <v>0.19500000000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I67" s="3">
+        <f>(I65-I66)/SQRT((I65*(1-I65)/I62) + (I66*(1-I66)/I62))</f>
+        <v>0.2808390524643406</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B69" s="3">
+        <f>B50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B70" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72" s="3">
+        <f>(B70-B71)/SQRT((B70*(1-B70)/B67) + (B71*(1-B71)/B67))</f>
+        <v>3.5831273647248749</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB58D04-DDE6-2346-BCA8-86015CFE2986}">
+  <dimension ref="B7:I27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H27" sqref="A15:H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>100</v>
+      </c>
+      <c r="D7" s="1">
+        <v>100</v>
+      </c>
+      <c r="E7" s="1">
+        <v>100</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+      <c r="H7">
+        <v>100</v>
+      </c>
+      <c r="I7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.19850000000000001</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.19750000000000001</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0.185</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0.1825</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3">
+        <f>(C9-C10)/SQRT((C9*(1-C9)/C7) + (C10*(1-C10)/C7))</f>
+        <v>1.7694293386135065E-2</v>
+      </c>
+      <c r="D11" s="3">
+        <f>(D9-D10)/SQRT((D9*(1-D9)/D7) + (D10*(1-D10)/D7))</f>
+        <v>2.6553965586847732E-2</v>
+      </c>
+      <c r="E11" s="3">
+        <f>(E9-E10)/SQRT((E9*(1-E9)/E7) + (E10*(1-E10)/E7))</f>
+        <v>4.4298554138723044E-2</v>
+      </c>
+      <c r="F11" s="3">
+        <f>(F9-F10)/SQRT((F9*(1-F9)/F7) + (F10*(1-F10)/F7))</f>
+        <v>8.8809106171083993E-2</v>
+      </c>
+      <c r="G11" s="3">
+        <f>(G9-G10)/SQRT((G9*(1-G9)/G7) + (G10*(1-G10)/G7))</f>
+        <v>0.17848607617497866</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" ref="H11" si="0">(H9-H10)/SQRT((H9*(1-H9)/H7) + (H10*(1-H10)/H7))</f>
+        <v>0.26907182321115491</v>
+      </c>
+      <c r="I11" s="3">
+        <f t="shared" ref="I11" si="1">(I9-I10)/SQRT((I9*(1-I9)/I7) + (I10*(1-I10)/I7))</f>
+        <v>0.31471880634684618</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B16" s="1"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="1"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="1"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="1"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B24" s="1"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B25" s="1"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B26" s="1"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B27" s="1"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/homework7/ssig_calculator.xlsx
+++ b/homework7/ssig_calculator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gavinkoma/Desktop/pattern_rec/homework7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F37A62F-7541-A84F-9A08-EA19E0BDE151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E278617E-F298-2448-B099-52A844AA203E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3680" yWindow="1480" windowWidth="11960" windowHeight="12560" activeTab="1" xr2:uid="{1E246484-E8EA-814E-8E6B-EF931C797928}"/>
+    <workbookView xWindow="16560" yWindow="2020" windowWidth="11960" windowHeight="12560" xr2:uid="{1E246484-E8EA-814E-8E6B-EF931C797928}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
   <si>
     <t>Confidence Level</t>
   </si>
@@ -460,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E353816D-5EEF-7E4A-B873-884E083DB11A}">
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="75" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28:I33"/>
+    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -490,765 +490,817 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="B2" s="8">
-        <v>1.2849999999999999</v>
-      </c>
+        <v>0.8</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1.282</v>
+      </c>
+      <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="B3" s="8">
-        <v>1.645</v>
+        <v>1.2849999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
+        <v>0.95</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1.645</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
         <v>0.99</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B5" s="8">
         <v>2.3250000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.99</v>
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1000</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="3">
-        <f>B4</f>
-        <v>2.3250000000000002</v>
+        <v>0</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.8</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="4">
-        <v>0.154</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="4">
-        <f>B9-(B9-B10)</f>
-        <v>7.3604754984557472E-2</v>
-      </c>
-      <c r="F9" s="4">
-        <f>B9+(B9-B10)</f>
-        <v>0.23439524501544251</v>
+        <v>1</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1.282</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="5">
-        <v>7.3604754984557472E-2</v>
+        <v>2</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="4">
+        <f>B10-(B10-B11)</f>
+        <v>0.19</v>
+      </c>
+      <c r="F10" s="4">
+        <f>B10+(B10-B11)</f>
+        <v>0.21000000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="3">
-        <f>(B9-B10)/SQRT((B9*(1-B9)/B6) + (B10*(1-B10)/B6))</f>
-        <v>2.3250686169147436</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="1">
-        <v>10000</v>
+      <c r="B12" s="3">
+        <f>(B10-B11)/SQRT((B10*(1-B10)/B7) + (B11*(1-B11)/B7))</f>
+        <v>0.56442253133924658</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.95</v>
+        <v>5</v>
+      </c>
+      <c r="B14" s="1">
+        <v>10000</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="3">
-        <f>B3</f>
-        <v>1.645</v>
+        <v>0</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.95</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="3">
+        <f>B4</f>
+        <v>1.645</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B17" s="4">
         <v>0.36799999999999999</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="4">
-        <f>B16-(B16-B17)</f>
+      <c r="E17" s="4">
+        <f>B17-(B17-B18)</f>
         <v>0.35681793257679717</v>
       </c>
-      <c r="F16" s="4">
-        <f>B16+(B16-B17)</f>
+      <c r="F17" s="4">
+        <f>B17+(B17-B18)</f>
         <v>0.37918206742320282</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B18" s="5">
         <v>0.35681793257679717</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="3">
-        <f>(B16-B17)/SQRT((B16*(1-B16)/B13) + (B17*(1-B17)/B13))</f>
+      <c r="B19" s="3">
+        <f>(B17-B18)/SQRT((B17*(1-B17)/B14) + (B18*(1-B18)/B14))</f>
         <v>1.6450000653126464</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="1">
-        <v>18936</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="2">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="3">
-        <f>B3</f>
-        <v>1.645</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="4">
-        <v>0.4894</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="4">
-        <f>B23-(B23-B24)</f>
-        <v>0.48095096122033576</v>
-      </c>
-      <c r="F23" s="4">
-        <f>B23+(B23-B24)</f>
-        <v>0.49784903877966424</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5">
-        <v>0.48095096122033576</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="3">
-        <f>(B23-B24)/SQRT((B23*(1-B23)/B20) + (B24*(1-B24)/B20))</f>
-        <v>1.6450265431962081</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I28" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I29" s="2">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" s="3">
-        <f>B11</f>
-        <v>2.3250686169147436</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I30" s="3">
-        <f>I11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="4">
-        <f>B31-(B31-B32)</f>
-        <v>0.19</v>
-      </c>
-      <c r="F31" s="4">
-        <f>B31+(B31-B32)</f>
-        <v>0.21000000000000002</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I31" s="4">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" s="5">
-        <v>0.19</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="5">
-        <v>0.19919999999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="3">
-        <f>(B31-B32)/SQRT((B31*(1-B31)/B28) + (B32*(1-B32)/B28))</f>
-        <v>0.56442253133924658</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I33" s="3">
-        <f>(I31-I32)/SQRT((I31*(1-I31)/I28) + (I32*(1-I32)/I28))</f>
-        <v>4.4754983172774689E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I36" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I37" s="2">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B38" s="3">
-        <f>B19</f>
-        <v>0</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I38" s="3">
-        <f>I19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B39" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="4">
-        <f>B39-(B39-B40)</f>
-        <v>0.18</v>
-      </c>
-      <c r="F39" s="4">
-        <f>B39+(B39-B40)</f>
-        <v>0.22000000000000003</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I39" s="4">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B40" s="5">
-        <v>0.18</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I40" s="5">
-        <v>0.19800000000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" s="3">
-        <f>(B39-B40)/SQRT((B39*(1-B39)/B36) + (B40*(1-B40)/B36))</f>
-        <v>1.1403464899034472</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I41" s="3">
-        <f>(I39-I40)/SQRT((I39*(1-I39)/I36) + (I40*(1-I40)/I36))</f>
-        <v>0.1120143244115954</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" s="2">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="3">
-        <f>B27</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B47" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="4">
-        <f>B47-(B47-B48)</f>
-        <v>0.17</v>
-      </c>
-      <c r="F47" s="4">
-        <f>B47+(B47-B48)</f>
-        <v>0.23</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I47" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B48" s="5">
-        <v>0.17</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I48" s="2">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B49" s="3">
-        <f>(B47-B48)/SQRT((B47*(1-B47)/B44) + (B48*(1-B48)/B44))</f>
-        <v>1.7288840869140769</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I49" s="3">
-        <f>I30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H50" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I50" s="4">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B51" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I51" s="5">
-        <v>0.19700000000000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" s="3">
-        <f>(I50-I51)/SQRT((I50*(1-I50)/I47) + (I51*(1-I51)/I47))</f>
-        <v>0.16818114657823627</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B53" s="3">
-        <f>B34</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B54" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E54" s="4">
-        <f>B54-(B54-B55)</f>
-        <v>0.16</v>
-      </c>
-      <c r="F54" s="4">
-        <f>B54+(B54-B55)</f>
-        <v>0.24000000000000002</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I54" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B55" s="5">
-        <v>0.16</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I55" s="2">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B56" s="3">
-        <f>(B54-B55)/SQRT((B54*(1-B54)/B51) + (B55*(1-B55)/B51))</f>
-        <v>2.3312620206007848</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I56" s="3">
-        <f>I37</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H57" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I57" s="4">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H58" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="5">
-        <v>0.19600000000000001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B59" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I59" s="3">
-        <f>(I57-I58)/SQRT((I57*(1-I57)/I54) + (I58*(1-I58)/I54))</f>
-        <v>0.22445572348938669</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B60" s="2">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B61" s="3">
-        <f>B42</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B62" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E62" s="4">
-        <f>B62-(B62-B63)</f>
-        <v>0.15</v>
-      </c>
-      <c r="F62" s="4">
-        <f>B62+(B62-B63)</f>
-        <v>0.25</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I62" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B63" s="5">
-        <v>0.15</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I63" s="2">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B64" s="3">
-        <f>(B62-B63)/SQRT((B62*(1-B62)/B59) + (B63*(1-B63)/B59))</f>
-        <v>2.9488391230979438</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I64" s="3">
-        <f>I45</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H65" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I65" s="4">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H66" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I66" s="5">
-        <v>0.19500000000000001</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B67" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I67" s="3">
-        <f>(I65-I66)/SQRT((I65*(1-I65)/I62) + (I66*(1-I66)/I62))</f>
-        <v>0.2808390524643406</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B68" s="2">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B69" s="3">
-        <f>B50</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B70" s="4">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B71" s="5">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B72" s="3">
-        <f>(B70-B71)/SQRT((B70*(1-B70)/B67) + (B71*(1-B71)/B67))</f>
-        <v>3.5831273647248749</v>
-      </c>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36"/>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37"/>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38"/>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39"/>
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40"/>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41"/>
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42"/>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43"/>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44"/>
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45"/>
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46"/>
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47"/>
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48"/>
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49"/>
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50"/>
+      <c r="B50"/>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50"/>
+      <c r="J50"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51"/>
+      <c r="B51"/>
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51"/>
+      <c r="J51"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52"/>
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52"/>
+      <c r="J52"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53"/>
+      <c r="B53"/>
+      <c r="C53"/>
+      <c r="D53"/>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53"/>
+      <c r="J53"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54"/>
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54"/>
+      <c r="J54"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55"/>
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56"/>
+      <c r="B56"/>
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56"/>
+      <c r="J56"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57"/>
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57"/>
+      <c r="J57"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58"/>
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59"/>
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="D59"/>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
+      <c r="J59"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60"/>
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61"/>
+      <c r="B61"/>
+      <c r="C61"/>
+      <c r="D61"/>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61"/>
+      <c r="J61"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62"/>
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62"/>
+      <c r="H62"/>
+      <c r="I62"/>
+      <c r="J62"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63"/>
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63"/>
+      <c r="J63"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64"/>
+      <c r="B64"/>
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64"/>
+      <c r="J64"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65"/>
+      <c r="B65"/>
+      <c r="C65"/>
+      <c r="D65"/>
+      <c r="E65"/>
+      <c r="F65"/>
+      <c r="G65"/>
+      <c r="H65"/>
+      <c r="I65"/>
+      <c r="J65"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66"/>
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66"/>
+      <c r="H66"/>
+      <c r="I66"/>
+      <c r="J66"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67"/>
+      <c r="B67"/>
+      <c r="C67"/>
+      <c r="D67"/>
+      <c r="E67"/>
+      <c r="F67"/>
+      <c r="G67"/>
+      <c r="H67"/>
+      <c r="I67"/>
+      <c r="J67"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68"/>
+      <c r="B68"/>
+      <c r="C68"/>
+      <c r="D68"/>
+      <c r="E68"/>
+      <c r="F68"/>
+      <c r="G68"/>
+      <c r="H68"/>
+      <c r="I68"/>
+      <c r="J68"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69"/>
+      <c r="B69"/>
+      <c r="C69"/>
+      <c r="D69"/>
+      <c r="E69"/>
+      <c r="F69"/>
+      <c r="G69"/>
+      <c r="H69"/>
+      <c r="I69"/>
+      <c r="J69"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70"/>
+      <c r="B70"/>
+      <c r="C70"/>
+      <c r="D70"/>
+      <c r="E70"/>
+      <c r="F70"/>
+      <c r="G70"/>
+      <c r="H70"/>
+      <c r="I70"/>
+      <c r="J70"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71"/>
+      <c r="B71"/>
+      <c r="C71"/>
+      <c r="D71"/>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71"/>
+      <c r="H71"/>
+      <c r="I71"/>
+      <c r="J71"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72"/>
+      <c r="B72"/>
+      <c r="C72"/>
+      <c r="D72"/>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72"/>
+      <c r="H72"/>
+      <c r="I72"/>
+      <c r="J72"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73"/>
+      <c r="B73"/>
+      <c r="C73"/>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+      <c r="H73"/>
+      <c r="I73"/>
+      <c r="J73"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74"/>
+      <c r="B74"/>
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74"/>
+      <c r="H74"/>
+      <c r="I74"/>
+      <c r="J74"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75"/>
+      <c r="B75"/>
+      <c r="C75"/>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="I75"/>
+      <c r="J75"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1259,8 +1311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB58D04-DDE6-2346-BCA8-86015CFE2986}">
   <dimension ref="B7:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H27" sqref="A15:H27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
